--- a/3.Doc/Doctor_import_template.xlsx
+++ b/3.Doc/Doctor_import_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phan Anh\fcdc\3.Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phan Anh\FCDC_1.1\FCDC_Version1.1\3.Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,31 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
-  <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>Họ và Tên</t>
-  </si>
-  <si>
-    <t>Giới Tính</t>
-  </si>
-  <si>
-    <t>Ngày Sinh</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>SĐT</t>
-  </si>
-  <si>
-    <t>Phường,Xã</t>
-  </si>
-  <si>
-    <t>Tỉnh</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Nam</t>
   </si>
@@ -62,9 +38,6 @@
     <t>Mai Dịch</t>
   </si>
   <si>
-    <t>Hà Nội</t>
-  </si>
-  <si>
     <t>23/08/1999</t>
   </si>
   <si>
@@ -84,6 +57,9 @@
   </si>
   <si>
     <t>0244556545</t>
+  </si>
+  <si>
+    <t>Bệnh viện 108</t>
   </si>
 </sst>
 </file>
@@ -415,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,87 +409,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1">
+        <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E1" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3.Doc/Doctor_import_template.xlsx
+++ b/3.Doc/Doctor_import_template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phan Anh\FCDC_1.1\FCDC_Version1.1\3.Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_FCDC\FCDC_Version1.1\3.Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C1148A-AFA2-43AA-8B59-80C7F97B4427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Họ và Tên</t>
+  </si>
+  <si>
+    <t>Giới Tính</t>
+  </si>
+  <si>
+    <t>Ngày Sinh</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>SĐT</t>
+  </si>
+  <si>
+    <t>Phường,Xã</t>
+  </si>
+  <si>
+    <t>Tỉnh</t>
+  </si>
   <si>
     <t>Nam</t>
   </si>
@@ -38,6 +63,9 @@
     <t>Mai Dịch</t>
   </si>
   <si>
+    <t>Hà Nội</t>
+  </si>
+  <si>
     <t>23/08/1999</t>
   </si>
   <si>
@@ -53,19 +81,16 @@
     <t>Trần Hòa</t>
   </si>
   <si>
-    <t>0236598479</t>
-  </si>
-  <si>
-    <t>0244556545</t>
-  </si>
-  <si>
-    <t>Bệnh viện 108</t>
+    <t>3333333333</t>
+  </si>
+  <si>
+    <t>4444444444</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -390,11 +415,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,61 +434,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E1" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
